--- a/biology/Botanique/Rhynchosia_ambacensis/Rhynchosia_ambacensis.xlsx
+++ b/biology/Botanique/Rhynchosia_ambacensis/Rhynchosia_ambacensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhynchosia ambacensis (Hiern) K.Schum. est une espèce de plantes de la famille des Fabacées et du genre Rhynchosia, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhynchosia ambacensis (Hiern) K.Schum. est une espèce de plantes de la famille des Fabacées et du genre Rhynchosia, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhynchosia ambacensis est une herbe d’environ 45 cm de haut. Elle se développe dans les zones sèches, et en particulier après un feu[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhynchosia ambacensis est une herbe d’environ 45 cm de haut. Elle se développe dans les zones sèches, et en particulier après un feu.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 décembre 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 décembre 2017) :
 sous-espèce Rhynchosia ambacensis subsp. ambacensis
 sous-espèce Rhynchosia ambacensis subsp. cameroonensis
 sous-espèce Rhynchosia ambacensis subsp. chellensis
-Selon Tropicos                                           (9 décembre 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Rhynchosia ambacensis subsp. ambacensis
 sous-espèce Rhynchosia ambacensis subsp. cameroonensis Verdc.</t>
         </is>
@@ -578,9 +594,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Rhynchosia ambacensis subsp. cameroonensis Verdc., relativement rare, est endémique du Cameroun, où elle a été observée dans deux régions (Nord et Extrême-Nord[6]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Rhynchosia ambacensis subsp. cameroonensis Verdc., relativement rare, est endémique du Cameroun, où elle a été observée dans deux régions (Nord et Extrême-Nord).
 </t>
         </is>
       </c>
